--- a/excel_with_subclasses/with_count/watercourse_with_count.xlsx
+++ b/excel_with_subclasses/with_count/watercourse_with_count.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="166">
   <si>
     <t>subclass</t>
   </si>
@@ -46,12 +46,6 @@
     <t>Q695793</t>
   </si>
   <si>
-    <t>Q88480</t>
-  </si>
-  <si>
-    <t>Q63565252</t>
-  </si>
-  <si>
     <t>Q474</t>
   </si>
   <si>
@@ -115,12 +109,12 @@
     <t>Q15842515</t>
   </si>
   <si>
+    <t>Q30158320</t>
+  </si>
+  <si>
     <t>Q55470128</t>
   </si>
   <si>
-    <t>Q30158320</t>
-  </si>
-  <si>
     <t>Q28109822</t>
   </si>
   <si>
@@ -151,108 +145,105 @@
     <t>Q2890064</t>
   </si>
   <si>
+    <t>Q1844833</t>
+  </si>
+  <si>
     <t>Q4250086</t>
   </si>
   <si>
-    <t>Q1844833</t>
-  </si>
-  <si>
     <t>Q803749</t>
   </si>
   <si>
     <t>Q1427694</t>
   </si>
   <si>
+    <t>Q8026426</t>
+  </si>
+  <si>
     <t>Q5068817</t>
   </si>
   <si>
+    <t>Q83287935</t>
+  </si>
+  <si>
+    <t>Q12099220</t>
+  </si>
+  <si>
     <t>Q911608</t>
   </si>
   <si>
-    <t>Q12099220</t>
-  </si>
-  <si>
-    <t>Q8026426</t>
-  </si>
-  <si>
-    <t>Q83287935</t>
+    <t>Q2929728</t>
   </si>
   <si>
     <t>Q14556915</t>
   </si>
   <si>
-    <t>Q2929728</t>
-  </si>
-  <si>
     <t>Q735485</t>
   </si>
   <si>
     <t>Q2570370</t>
   </si>
   <si>
+    <t>Q7632182</t>
+  </si>
+  <si>
+    <t>Q58410133</t>
+  </si>
+  <si>
     <t>Q8242648</t>
   </si>
   <si>
-    <t>Q7632182</t>
-  </si>
-  <si>
     <t>Q1016714</t>
   </si>
   <si>
+    <t>Q572211</t>
+  </si>
+  <si>
+    <t>Q17021145</t>
+  </si>
+  <si>
+    <t>Q11932076</t>
+  </si>
+  <si>
+    <t>Q13049980</t>
+  </si>
+  <si>
+    <t>Q1444790</t>
+  </si>
+  <si>
+    <t>Q1494514</t>
+  </si>
+  <si>
+    <t>Q16437</t>
+  </si>
+  <si>
+    <t>Q16669588</t>
+  </si>
+  <si>
+    <t>Q17067761</t>
+  </si>
+  <si>
+    <t>Q5715032</t>
+  </si>
+  <si>
+    <t>Q2043393</t>
+  </si>
+  <si>
+    <t>Q2478921</t>
+  </si>
+  <si>
+    <t>Q2855957</t>
+  </si>
+  <si>
     <t>Q3033403</t>
   </si>
   <si>
-    <t>Q58410133</t>
-  </si>
-  <si>
-    <t>Q572211</t>
-  </si>
-  <si>
-    <t>Q11932076</t>
-  </si>
-  <si>
-    <t>Q13049980</t>
-  </si>
-  <si>
-    <t>Q1444790</t>
-  </si>
-  <si>
-    <t>Q1494514</t>
-  </si>
-  <si>
-    <t>Q15709086</t>
-  </si>
-  <si>
-    <t>Q16437</t>
-  </si>
-  <si>
-    <t>Q16669588</t>
-  </si>
-  <si>
-    <t>Q17021145</t>
-  </si>
-  <si>
-    <t>Q17067761</t>
-  </si>
-  <si>
-    <t>Q2043393</t>
-  </si>
-  <si>
-    <t>Q2478921</t>
-  </si>
-  <si>
-    <t>Q2855957</t>
-  </si>
-  <si>
     <t>Q47395013</t>
   </si>
   <si>
     <t>Q55659156</t>
   </si>
   <si>
-    <t>Q5715032</t>
-  </si>
-  <si>
     <t>Q93307402</t>
   </si>
   <si>
@@ -274,12 +265,6 @@
     <t>речной порог</t>
   </si>
   <si>
-    <t>Ров</t>
-  </si>
-  <si>
-    <t>ручей</t>
-  </si>
-  <si>
     <t>акведук</t>
   </si>
   <si>
@@ -337,12 +322,12 @@
     <t>rivulet</t>
   </si>
   <si>
+    <t>creek</t>
+  </si>
+  <si>
     <t>intermittent oxbow lake</t>
   </si>
   <si>
-    <t>creek</t>
-  </si>
-  <si>
     <t>sewerage aqueduct</t>
   </si>
   <si>
@@ -373,105 +358,102 @@
     <t>ditch</t>
   </si>
   <si>
+    <t>Перекат</t>
+  </si>
+  <si>
     <t>nullah</t>
   </si>
   <si>
-    <t>Перекат</t>
-  </si>
-  <si>
     <t>Биллабонг</t>
   </si>
   <si>
     <t>Fleet</t>
   </si>
   <si>
+    <t>winterbourne</t>
+  </si>
+  <si>
     <t>chalk stream</t>
   </si>
   <si>
+    <t>back channel</t>
+  </si>
+  <si>
+    <t>горная река</t>
+  </si>
+  <si>
     <t>fiumara</t>
   </si>
   <si>
-    <t>горная река</t>
-  </si>
-  <si>
-    <t>winterbourne</t>
-  </si>
-  <si>
-    <t>back channel</t>
+    <t>glacial stream</t>
   </si>
   <si>
     <t>leat</t>
   </si>
   <si>
-    <t>glacial stream</t>
-  </si>
-  <si>
     <t>mountain stream</t>
   </si>
   <si>
+    <t>подповерхностное течение</t>
+  </si>
+  <si>
+    <t>Пархаро-Чубекская оросительная система</t>
+  </si>
+  <si>
     <t>Baïne</t>
   </si>
   <si>
-    <t>подповерхностное течение</t>
-  </si>
-  <si>
     <t>burn</t>
   </si>
   <si>
+    <t>Antecedent drainage stream</t>
+  </si>
+  <si>
+    <t>bourne</t>
+  </si>
+  <si>
+    <t>Llau</t>
+  </si>
+  <si>
+    <t>recolón</t>
+  </si>
+  <si>
+    <t>речной сток</t>
+  </si>
+  <si>
+    <t>Umflut</t>
+  </si>
+  <si>
+    <t>Alamito Creek</t>
+  </si>
+  <si>
+    <t>кювет</t>
+  </si>
+  <si>
+    <t>Freestone stream</t>
+  </si>
+  <si>
+    <t>Azarbe</t>
+  </si>
+  <si>
+    <t>крик</t>
+  </si>
+  <si>
+    <t>сток</t>
+  </si>
+  <si>
+    <t>винтовой поток</t>
+  </si>
+  <si>
     <t>three way lock</t>
   </si>
   <si>
-    <t>Пархаро-Чубекская оросительная система</t>
-  </si>
-  <si>
-    <t>Antecedent drainage stream</t>
-  </si>
-  <si>
-    <t>Llau</t>
-  </si>
-  <si>
-    <t>recolón</t>
-  </si>
-  <si>
-    <t>речной сток</t>
-  </si>
-  <si>
-    <t>Umflut</t>
-  </si>
-  <si>
-    <t>Moats</t>
-  </si>
-  <si>
-    <t>Alamito Creek</t>
-  </si>
-  <si>
-    <t>кювет</t>
-  </si>
-  <si>
-    <t>bourne</t>
-  </si>
-  <si>
-    <t>Freestone stream</t>
-  </si>
-  <si>
-    <t>крик</t>
-  </si>
-  <si>
-    <t>сток</t>
-  </si>
-  <si>
-    <t>винтовой поток</t>
-  </si>
-  <si>
     <t>ridge-shaped well bore</t>
   </si>
   <si>
     <t>intermittent watercourse</t>
   </si>
   <si>
-    <t>Azarbe</t>
-  </si>
-  <si>
     <t>ditches of León</t>
   </si>
   <si>
@@ -490,30 +472,30 @@
     <t>Q2935978_irrigation canal</t>
   </si>
   <si>
+    <t>Q18870689_акведук</t>
+  </si>
+  <si>
+    <t>Q180537_меандр</t>
+  </si>
+  <si>
+    <t>Q55659107_intermittent natural watercourse</t>
+  </si>
+  <si>
+    <t>Q8261440_канал для транспортировки воды</t>
+  </si>
+  <si>
+    <t>Q474_акведук</t>
+  </si>
+  <si>
     <t>Q2048319_канава</t>
   </si>
   <si>
+    <t>Q373315_балка,Q55659107_intermittent natural watercourse</t>
+  </si>
+  <si>
     <t>Q47521_поток</t>
   </si>
   <si>
-    <t>Q18870689_акведук</t>
-  </si>
-  <si>
-    <t>Q180537_меандр</t>
-  </si>
-  <si>
-    <t>Q55659107_intermittent natural watercourse</t>
-  </si>
-  <si>
-    <t>Q8261440_канал для транспортировки воды</t>
-  </si>
-  <si>
-    <t>Q474_акведук</t>
-  </si>
-  <si>
-    <t>Q373315_балка,Q55659107_intermittent natural watercourse</t>
-  </si>
-  <si>
     <t>Q209333_Старица</t>
   </si>
   <si>
@@ -526,13 +508,10 @@
     <t>Q1437299_поток</t>
   </si>
   <si>
+    <t>Q2478921_сток</t>
+  </si>
+  <si>
     <t>Q22953352_Q22953352</t>
-  </si>
-  <si>
-    <t>Q2478921_сток</t>
-  </si>
-  <si>
-    <t>Q88480_Ров</t>
   </si>
 </sst>
 </file>
@@ -890,7 +869,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -915,13 +894,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D2">
-        <v>124709</v>
+        <v>124695</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -929,10 +908,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D3">
         <v>66671</v>
@@ -943,10 +922,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D4">
         <v>18059</v>
@@ -957,10 +936,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D5">
         <v>13593</v>
@@ -971,10 +950,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D6">
         <v>1147</v>
@@ -985,10 +964,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D7">
         <v>988</v>
@@ -999,13 +978,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D8">
-        <v>871</v>
+        <v>715</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1013,13 +992,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D9">
-        <v>835</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1027,13 +1006,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D10">
-        <v>715</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1041,13 +1020,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D11">
-        <v>308</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1055,13 +1034,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D12">
-        <v>291</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1069,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D13">
-        <v>268</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1083,13 +1062,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
         <v>154</v>
       </c>
       <c r="D14">
-        <v>218</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1097,13 +1076,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D15">
-        <v>161</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1111,13 +1090,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D16">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1125,13 +1104,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D17">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1139,13 +1118,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18">
         <v>95</v>
-      </c>
-      <c r="C18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1153,13 +1132,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
         <v>158</v>
       </c>
       <c r="D19">
-        <v>114</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1167,13 +1146,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D20">
-        <v>95</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1181,13 +1160,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="D21">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1195,13 +1174,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D22">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1209,13 +1188,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D23">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1223,13 +1202,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1237,13 +1216,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D25">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1251,13 +1230,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D26">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1265,13 +1244,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1279,13 +1258,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1293,13 +1272,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1307,13 +1286,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1321,13 +1300,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1335,13 +1314,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1349,13 +1328,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1363,13 +1342,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1377,13 +1356,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
         <v>154</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1391,13 +1370,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1405,13 +1384,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D37">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1419,13 +1398,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1433,13 +1412,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1447,13 +1426,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1461,13 +1440,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1475,13 +1454,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1489,10 +1468,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -1503,10 +1482,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -1517,13 +1496,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1531,13 +1510,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1545,7 +1524,7 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
         <v>159</v>
@@ -1559,10 +1538,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -1573,10 +1552,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -1587,13 +1566,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
         <v>159</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1601,13 +1580,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1615,10 +1594,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1629,7 +1608,7 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s">
         <v>159</v>
@@ -1643,13 +1622,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C54" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1657,13 +1636,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C55" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1671,10 +1650,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1685,10 +1664,10 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C57" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1699,10 +1678,10 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C58" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1713,10 +1692,10 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1727,10 +1706,10 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1741,10 +1720,10 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C61" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1755,10 +1734,10 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1769,10 +1748,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1783,10 +1762,10 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C64" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1797,10 +1776,10 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1811,10 +1790,10 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C66" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1825,10 +1804,10 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1839,10 +1818,10 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1853,10 +1832,10 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C69" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1867,10 +1846,10 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -1881,10 +1860,10 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C71" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1895,10 +1874,10 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1909,10 +1888,10 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1923,54 +1902,12 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" t="s">
-        <v>154</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" t="s">
-        <v>151</v>
-      </c>
-      <c r="C76" t="s">
-        <v>158</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" t="s">
-        <v>152</v>
-      </c>
-      <c r="C77" t="s">
-        <v>167</v>
-      </c>
-      <c r="D77">
         <v>0</v>
       </c>
     </row>
